--- a/data/processed/state_overviews/north-dakota_overview.xlsx
+++ b/data/processed/state_overviews/north-dakota_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>444</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Adams County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>2</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Barnes County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>8</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Benson County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Billings County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>2</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Bottineau County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>3</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Bowman County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>6</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Burleigh County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>55</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Cass County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>79</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Cavalier County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>5</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Dickey County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>5</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Divide County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Dunn County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>4</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Eddy County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>3</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Emmons County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>3</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Foster County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>3</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Golden Valley County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>3</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Grand Forks County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>45</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Grant County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>5</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Griggs County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>3</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>LaMoure County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>5</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Logan County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>3</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>McHenry County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>2</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>McIntosh County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>3</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>McKenzie County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>8</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>McLean County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>5</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Mercer County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>8</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Morton County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>14</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Mountrail County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>4</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Nelson County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>5</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Pembina County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>8</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Pierce County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>6</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Ramsey County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>10</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Ransom County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>5</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Renville County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>1</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Richland County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>10</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Rolette County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>9</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Sargent County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>2</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Sioux County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>2</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Stark County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>21</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Steele County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>1</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Stutsman County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>12</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Towner County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>2</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Traill County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>5</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Walsh County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>11</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Ward County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>32</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>Wells County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>1</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>Williams County</t>
         </is>
       </c>
-      <c r="B48">
-        <v>12</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,27 +1970,29 @@
           <t>Kidder County</t>
         </is>
       </c>
-      <c r="B49">
-        <v>0</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1904,27 +2002,29 @@
           <t>Slope County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>0</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1934,27 +2034,29 @@
           <t>Oliver County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>0</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1964,27 +2066,61 @@
           <t>Hettinger County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>0</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>$455,735,134</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.73%</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>-6.94%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>61.49%</t>
         </is>
       </c>
     </row>
@@ -2039,8 +2175,10 @@
           <t>Congressional District (at Large)</t>
         </is>
       </c>
-      <c r="B2">
-        <v>444</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2069,8 +2207,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B3">
-        <v>444</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2144,8 +2284,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>157</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2174,8 +2316,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>100</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2204,8 +2348,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>69</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2234,8 +2380,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>29</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2264,8 +2412,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>64</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2294,8 +2444,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>25</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2324,8 +2476,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>444</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2399,8 +2553,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>21</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2429,8 +2585,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>29</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2459,8 +2617,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>16</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2489,8 +2649,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>54</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2519,8 +2681,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>21</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2549,8 +2713,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>144</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2579,8 +2745,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B8">
-        <v>32</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2609,8 +2777,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B9">
-        <v>10</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2639,8 +2809,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B10">
-        <v>113</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2669,8 +2841,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B11">
-        <v>4</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2699,8 +2873,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B12">
-        <v>444</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/north-dakota_overview.xlsx
+++ b/data/processed/state_overviews/north-dakota_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,103 +431,103 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Adams County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$2,411,226</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.95%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.78%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barnes County</t>
+          <t>North Dakota</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>444</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$3,949,890</t>
+          <t>$455,735,134</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.94%</t>
+          <t>9.73%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-6.66%</t>
+          <t>-6.94%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>61.49%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Benson County</t>
+          <t>Adams County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -537,17 +537,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$15,238,133</t>
+          <t>$2,411,226</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33.24%</t>
+          <t>8.95%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-30.72%</t>
+          <t>0.78%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -559,359 +559,359 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Billings County</t>
+          <t>Barnes County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$5,500,176</t>
+          <t>$3,949,890</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>50.62%</t>
+          <t>7.94%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>35.34%</t>
+          <t>-6.66%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bottineau County</t>
+          <t>Benson County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$356,895</t>
+          <t>$15,238,133</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-21.80%</t>
+          <t>33.24%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-75.65%</t>
+          <t>-30.72%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bowman County</t>
+          <t>Billings County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$4,037,759</t>
+          <t>$5,500,176</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.63%</t>
+          <t>50.62%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-14.22%</t>
+          <t>35.34%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Burleigh County</t>
+          <t>Bottineau County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$88,646,357</t>
+          <t>$356,895</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.40%</t>
+          <t>-21.80%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-8.97%</t>
+          <t>-75.65%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>67.27%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cass County</t>
+          <t>Bowman County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$79,896,589</t>
+          <t>$4,037,759</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.05%</t>
+          <t>2.63%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-2.86%</t>
+          <t>-14.22%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>54.43%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cavalier County</t>
+          <t>Burleigh County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$1,573,244</t>
+          <t>$88,646,357</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.24%</t>
+          <t>12.40%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-3.11%</t>
+          <t>-8.97%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>67.27%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dickey County</t>
+          <t>Cass County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$2,041,437</t>
+          <t>$79,896,589</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.58%</t>
+          <t>10.05%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-12.23%</t>
+          <t>-2.86%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>54.43%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Divide County</t>
+          <t>Cavalier County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$771,047</t>
+          <t>$1,573,244</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-12.43%</t>
+          <t>6.24%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-21.25%</t>
+          <t>-3.11%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dunn County</t>
+          <t>Dickey County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$437,622</t>
+          <t>$2,041,437</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30.16%</t>
+          <t>8.58%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>-12.23%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Eddy County</t>
+          <t>Divide County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$1,179,313</t>
+          <t>$771,047</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.92%</t>
+          <t>-12.43%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-7.08%</t>
+          <t>-21.25%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Emmons County</t>
+          <t>Dunn County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$2,421,293</t>
+          <t>$437,622</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10.03%</t>
+          <t>30.16%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-7.50%</t>
+          <t>6.84%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Foster County</t>
+          <t>Eddy County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -921,29 +921,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$764,669</t>
+          <t>$1,179,313</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9.92%</t>
+          <t>6.92%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.23%</t>
+          <t>-7.08%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Golden Valley County</t>
+          <t>Emmons County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -953,17 +953,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$274,985</t>
+          <t>$2,421,293</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.36%</t>
+          <t>10.03%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-13.33%</t>
+          <t>-7.50%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -975,103 +975,103 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Grand Forks County</t>
+          <t>Foster County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$32,815,451</t>
+          <t>$764,669</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.64%</t>
+          <t>9.92%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-12.23%</t>
+          <t>5.23%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>62.22%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Grant County</t>
+          <t>Golden Valley County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$1,364,485</t>
+          <t>$274,985</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5.18%</t>
+          <t>2.36%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-8.74%</t>
+          <t>-13.33%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Griggs County</t>
+          <t>Grand Forks County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$1,198,822</t>
+          <t>$32,815,451</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14.95%</t>
+          <t>6.64%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.64%</t>
+          <t>-12.23%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>62.22%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LaMoure County</t>
+          <t>Grant County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1081,29 +1081,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$899,601</t>
+          <t>$1,364,485</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>14.25%</t>
+          <t>5.18%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-3.72%</t>
+          <t>-8.74%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Logan County</t>
+          <t>Griggs County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1113,61 +1113,61 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$201,123</t>
+          <t>$1,198,822</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.21%</t>
+          <t>14.95%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-1.95%</t>
+          <t>3.64%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>McHenry County</t>
+          <t>LaMoure County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$334,836</t>
+          <t>$899,601</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>27.83%</t>
+          <t>14.25%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.97%</t>
+          <t>-3.72%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>McIntosh County</t>
+          <t>Logan County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1177,49 +1177,49 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$3,465,675</t>
+          <t>$201,123</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.71%</t>
+          <t>1.21%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-6.20%</t>
+          <t>-1.95%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>McKenzie County</t>
+          <t>McHenry County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$6,049,620</t>
+          <t>$334,836</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>28.77%</t>
+          <t>27.83%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.79%</t>
+          <t>4.97%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1231,27 +1231,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>McLean County</t>
+          <t>McIntosh County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$5,214,120</t>
+          <t>$3,465,675</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.23%</t>
+          <t>8.71%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-42.47%</t>
+          <t>-6.20%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1263,7 +1263,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mercer County</t>
+          <t>McKenzie County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1273,305 +1273,305 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$7,104,051</t>
+          <t>$6,049,620</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.70%</t>
+          <t>28.77%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-12.17%</t>
+          <t>0.79%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Morton County</t>
+          <t>McLean County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$5,836,226</t>
+          <t>$5,214,120</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8.37%</t>
+          <t>3.23%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-4.36%</t>
+          <t>-42.47%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>64.29%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Mountrail County</t>
+          <t>Mercer County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$499,183</t>
+          <t>$7,104,051</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12.03%</t>
+          <t>6.70%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.98%</t>
+          <t>-12.17%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>25.00%</t>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Nelson County</t>
+          <t>Morton County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$1,084,101</t>
+          <t>$5,836,226</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.05%</t>
+          <t>8.37%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-5.31%</t>
+          <t>-4.36%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>64.29%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pembina County</t>
+          <t>Mountrail County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$1,321,827</t>
+          <t>$499,183</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>9.35%</t>
+          <t>12.03%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-7.94%</t>
+          <t>7.98%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pierce County</t>
+          <t>Nelson County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$8,261,047</t>
+          <t>$1,084,101</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>13.49%</t>
+          <t>4.05%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.07%</t>
+          <t>-5.31%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ramsey County</t>
+          <t>Pembina County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$5,349,243</t>
+          <t>$1,321,827</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14.41%</t>
+          <t>9.35%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-11.97%</t>
+          <t>-7.94%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ransom County</t>
+          <t>Pierce County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$1,477,295</t>
+          <t>$8,261,047</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>13.49%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-13.92%</t>
+          <t>1.07%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Renville County</t>
+          <t>Ramsey County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$88,287</t>
+          <t>$5,349,243</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-9.38%</t>
+          <t>14.41%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-28.50%</t>
+          <t>-11.97%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Richland County</t>
+          <t>Ransom County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$7,850,121</t>
+          <t>$1,477,295</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3.95%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-9.86%</t>
+          <t>-13.92%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1583,544 +1583,448 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Rolette County</t>
+          <t>Renville County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$32,176,559</t>
+          <t>$88,287</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4.44%</t>
+          <t>-9.38%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-56.68%</t>
+          <t>-28.50%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>88.89%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sargent County</t>
+          <t>Richland County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$689,324</t>
+          <t>$7,850,121</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>19.06%</t>
+          <t>3.95%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-5.05%</t>
+          <t>-9.86%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sioux County</t>
+          <t>Rolette County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$16,362,686</t>
+          <t>$32,176,559</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-6.28%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-96.72%</t>
+          <t>-56.68%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>88.89%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Stark County</t>
+          <t>Sargent County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$24,095,380</t>
+          <t>$689,324</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12.98%</t>
+          <t>19.06%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-23.56%</t>
+          <t>-5.05%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Steele County</t>
+          <t>Sioux County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$3,000</t>
+          <t>$16,362,686</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5.77%</t>
+          <t>-6.28%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4.50%</t>
+          <t>-96.72%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Stutsman County</t>
+          <t>Stark County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$10,499,456</t>
+          <t>$24,095,380</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>18.34%</t>
+          <t>12.98%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-0.20%</t>
+          <t>-23.56%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Towner County</t>
+          <t>Steele County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$3,058,574</t>
+          <t>$3,000</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>48.65%</t>
+          <t>5.77%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>37.99%</t>
+          <t>4.50%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Traill County</t>
+          <t>Stutsman County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$1,125,092</t>
+          <t>$10,499,456</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>13.02%</t>
+          <t>18.34%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-2.29%</t>
+          <t>-0.20%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Walsh County</t>
+          <t>Towner County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$8,603,511</t>
+          <t>$3,058,574</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>9.41%</t>
+          <t>48.65%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-1.69%</t>
+          <t>37.99%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>54.55%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ward County</t>
+          <t>Traill County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$53,010,662</t>
+          <t>$1,125,092</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>11.28%</t>
+          <t>13.02%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-7.51%</t>
+          <t>-2.29%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>53.12%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Wells County</t>
+          <t>Walsh County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$181,000</t>
+          <t>$8,603,511</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12.07%</t>
+          <t>9.41%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-18.51%</t>
+          <t>-1.69%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>54.55%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Williams County</t>
+          <t>Ward County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$6,014,141</t>
+          <t>$53,010,662</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>13.94%</t>
+          <t>11.28%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-1.15%</t>
+          <t>-7.51%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>53.12%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Kidder County</t>
+          <t>Wells County</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$181,000</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>12.07%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-18.51%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Slope County</t>
+          <t>Williams County</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$6,014,141</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>13.94%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-1.15%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Oliver County</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Hettinger County</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>$455,735,134</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>9.73%</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>-6.94%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>61.49%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2035,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2140,71 +2044,71 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District (at Large)</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$455,735,134</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.73%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-6.94%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>61.49%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>North Dakota</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2228,6 +2132,38 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>61.49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Congressional district (at large)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>$455,735,134</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.73%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-6.94%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>61.49%</t>
         </is>
@@ -2254,34 +2190,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2313,128 +2249,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$81,726,133</t>
+          <t>$275,912,964</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.71%</t>
+          <t>6.48%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-9.23%</t>
+          <t>-1.52%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>69.00%</t>
+          <t>51.56%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$31,348,865</t>
+          <t>$81,726,133</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.52%</t>
+          <t>7.71%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-8.25%</t>
+          <t>-9.23%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>68.12%</t>
+          <t>69.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$50,210,634</t>
+          <t>$31,348,865</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.71%</t>
+          <t>16.52%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-6.20%</t>
+          <t>-8.25%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>58.62%</t>
+          <t>68.12%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$275,912,964</t>
+          <t>$50,210,634</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.48%</t>
+          <t>8.71%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-1.52%</t>
+          <t>-6.20%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>51.56%</t>
+          <t>58.62%</t>
         </is>
       </c>
     </row>
@@ -2523,34 +2459,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2582,7 +2518,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2614,7 +2550,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2646,7 +2582,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2710,7 +2646,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2742,7 +2678,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2774,7 +2710,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2806,64 +2742,64 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$146,183,475</t>
+          <t>$35,081,614</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.71%</t>
+          <t>19.92%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-9.33%</t>
+          <t>5.37%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>64.60%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$35,081,614</t>
+          <t>$146,183,475</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19.92%</t>
+          <t>8.71%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.37%</t>
+          <t>-9.33%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>64.60%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/north-dakota_overview.xlsx
+++ b/data/processed/state_overviews/north-dakota_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>61.49%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>444</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$455,735,134</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>9.73%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-6.94%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>61.49%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>61.49%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>444</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$455,735,134</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.73%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-6.94%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>61.49%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$2,411,226</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>8.95%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.78%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$3,949,890</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>7.94%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-6.66%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$15,238,133</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>33.24%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-30.72%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$5,500,176</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>50.62%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>35.34%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$356,895</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>-21.80%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-75.65%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$4,037,759</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2.63%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-14.22%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>67.27%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>55</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$88,646,357</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>12.40%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-8.97%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>67.27%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>54.43%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>79</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$79,896,589</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>10.05%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-2.86%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>54.43%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$1,573,244</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>6.24%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-3.11%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$2,041,437</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>8.58%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-12.23%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$771,047</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>-12.43%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-21.25%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$437,622</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>30.16%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>6.84%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$1,179,313</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>6.92%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-7.08%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$2,421,293</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>10.03%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-7.50%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$764,669</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>9.92%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>5.23%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$274,985</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2.36%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-13.33%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>62.22%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$32,815,451</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>6.64%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-12.23%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>62.22%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$1,364,485</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>5.18%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-8.74%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$1,198,822</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>14.95%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>3.64%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$899,601</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>14.25%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-3.72%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$201,123</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1.21%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-1.95%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$334,836</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>27.83%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>4.97%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$3,465,675</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>8.71%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-6.20%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$6,049,620</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>28.77%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>0.79%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$5,214,120</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>3.23%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-42.47%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$7,104,051</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>6.70%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-12.17%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>64.29%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$5,836,226</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>8.37%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-4.36%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>64.29%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$499,183</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>12.03%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>7.98%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$1,084,101</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>4.05%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-5.31%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$1,321,827</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>9.35%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-7.94%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$8,261,047</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>13.49%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1.07%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$5,349,243</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>14.41%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-11.97%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$1,477,295</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>9.98%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-13.92%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$88,287</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>-9.38%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-28.50%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$7,850,121</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>3.95%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-9.86%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>88.89%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$32,176,559</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>4.44%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-56.68%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>88.89%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$689,324</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>19.06%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-5.05%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$16,362,686</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>-6.28%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-96.72%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$24,095,380</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>12.98%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-23.56%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$3,000</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>5.77%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>4.50%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$10,499,456</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>18.34%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-0.20%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$3,058,574</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>48.65%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>37.99%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$1,125,092</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>13.02%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-2.29%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>54.55%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$8,603,511</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>9.41%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-1.69%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>54.55%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>53.12%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$53,010,662</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>11.28%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-7.51%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>53.12%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$181,000</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>12.07%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>-18.51%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$6,014,141</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>13.94%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>-1.15%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2049,27 +2049,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -2081,27 +2081,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -2113,59 +2113,59 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>61.49%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>444</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$455,735,134</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.73%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-6.94%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>61.49%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional district (at large)</t>
+          <t>Congressional District (at Large)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>61.49%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>444</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$455,735,134</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>9.73%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-6.94%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>61.49%</t>
         </is>
       </c>
     </row>
@@ -2190,187 +2190,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>64.33%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>157</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$15,389,793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.98%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-11.99%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>64.33%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>69.00%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$275,912,964</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.48%</t>
+          <t>$81,726,133</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-1.52%</t>
+          <t>7.71%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>51.56%</t>
+          <t>-9.23%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>68.12%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$81,726,133</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.71%</t>
+          <t>$31,348,865</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-9.23%</t>
+          <t>16.52%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>69.00%</t>
+          <t>-8.25%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>58.62%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$31,348,865</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.52%</t>
+          <t>$50,210,634</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-8.25%</t>
+          <t>8.71%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>68.12%</t>
+          <t>-6.20%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>51.56%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$50,210,634</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.71%</t>
+          <t>$275,912,964</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-6.20%</t>
+          <t>6.48%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>58.62%</t>
+          <t>-1.52%</t>
         </is>
       </c>
     </row>
@@ -2382,27 +2382,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>24.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$1,146,745</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>52.15%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>20.55%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>24.00%</t>
         </is>
       </c>
     </row>
@@ -2414,27 +2414,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>61.49%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>444</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$455,735,134</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>9.73%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-6.94%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>61.49%</t>
         </is>
       </c>
     </row>
@@ -2459,155 +2459,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$8,058,301</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>25.12%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.82%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>42.86%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>37.93%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$73,220,273</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>15.02%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.18%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>37.93%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$3,792,984</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>23.12%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.39%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>64.81%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$32,531,582</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>8.26%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-6.29%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>64.81%</t>
         </is>
       </c>
     </row>
@@ -2619,187 +2619,187 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$56,076,989</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>3.95%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-5.46%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>70.14%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>144</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$73,364,618</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>7.61%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-12.51%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>70.14%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>56.25%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$24,604,213</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>25.04%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-3.79%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>56.25%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$2,821,085</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>14.10%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.82%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>64.60%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$35,081,614</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19.92%</t>
+          <t>$146,183,475</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.37%</t>
+          <t>8.71%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>-9.33%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$146,183,475</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.71%</t>
+          <t>$35,081,614</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-9.33%</t>
+          <t>19.92%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>64.60%</t>
+          <t>5.37%</t>
         </is>
       </c>
     </row>
@@ -2811,27 +2811,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>61.49%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>444</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$455,735,134</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>9.73%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-6.94%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>61.49%</t>
         </is>
       </c>
     </row>
